--- a/数据整理/stocks/A股/上证主板/601229-上海银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601229-上海银行.xlsx
@@ -451,519 +451,699 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>512800</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1201</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160631</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9648</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512700</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5950</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161723</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4019</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161121</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2578</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161029</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证银行指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2000</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160418</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1687</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512820</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1533</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160517</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1209</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009860</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1184</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>515020</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515500</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>海富通中证长三角领先ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0932</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>512730</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.02</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>510130</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>易方达上证中盘ETF</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>98.64</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1.75</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009860</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>易方达中证银行指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>160418</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华安中证银行指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>94.81</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>160517</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博时中证银行指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>94.06</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>160631</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>鹏华中证银行指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>94.12</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>161029</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富国中证银行指数</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>92.68</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>161121</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>易方达中证银行指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>161723</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>招商中证银行指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>94.21</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>515280</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>96.57</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>168205</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中融中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>510220</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证中小盘ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>97.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>168205</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中融中证银行指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>92.77</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>512700</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>南方中证银行ETF</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>99.75</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>512730</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>鹏华中证银行ETF</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>97.02</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>512800</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华宝中证银行ETF</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>99.05</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>512820</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>汇添富中证银行ETF</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>99.55</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>515020</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华夏中证银行ETF</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>98.14</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>515280</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>富国中证银行ETF</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>96.57</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>510220</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华泰柏瑞上证中小盘ETF</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>97.83</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>515500</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>海富通中证长三角领先ETF</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>7</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -973,7 +1153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -994,15 +1174,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005576</t>
+          <t>515290</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华泰柏瑞新金融地产灵活配置混合</t>
+          <t>天弘中证银行ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.62</t>
+          <t>92.25</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.66</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
+          <t>99.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1734</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005258</t>
+          <t>512800</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城量化平衡灵活配置混合</t>
+          <t>华宝中证银行ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>89.36</t>
+          <t>91.25</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>99.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1208</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005325</t>
+          <t>512700</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>景顺长城泰恒回报灵活配置混合A</t>
+          <t>南方中证银行ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23.01</t>
+          <t>21.35</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7344</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005326</t>
+          <t>160631</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>景顺长城泰恒回报灵活配置混合C</t>
+          <t>鹏华中证银行指数（LOF）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>23.01</t>
+          <t>21.03</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6835</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006547</t>
+          <t>161121</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>红塔红土盛弘灵活配置混合A</t>
+          <t>易方达中证银行指数（LOF）A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>63.66</t>
+          <t>15.16</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4942</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006548</t>
+          <t>161723</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>红塔红土盛弘灵活配置混合C</t>
+          <t>招商中证银行指数（LOF）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>63.66</t>
+          <t>14.35</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4664</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>165531</t>
+          <t>161029</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>信诚多策略灵活配置混合（LOF）</t>
+          <t>富国中证银行指数</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24.36</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2728</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000743</t>
+          <t>160517</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>红塔红土盛世普益灵活配置混合</t>
+          <t>博时中证银行指数（LOF）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>64.07</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2292</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1238,25 +1508,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000978</t>
+          <t>512820</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>景顺长城量化精选股票</t>
+          <t>汇添富中证银行ETF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>83.80</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1651</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>510130</t>
+          <t>515020</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>易方达上证中盘ETF</t>
+          <t>华夏中证银行ETF</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>98.51</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1387</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>510220</t>
+          <t>009860</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华泰柏瑞上证中小盘ETF</t>
+          <t>易方达中证银行指数（LOF）C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>98.70</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1203</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1322,25 +1622,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>512700</t>
+          <t>160418</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>南方中证银行ETF</t>
+          <t>华安中证银行指数（LOF）A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>99.56</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1134</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1350,25 +1660,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>512730</t>
+          <t>000978</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>鹏华中证银行ETF</t>
+          <t>景顺长城量化精选股票</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>97.66</t>
+          <t>6.09</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
+          <t>83.80</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>512800</t>
+          <t>006547</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华宝中证银行ETF</t>
+          <t>红塔红土盛弘灵活配置混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>99.11</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
+          <t>63.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>512820</t>
+          <t>000743</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>汇添富中证银行ETF</t>
+          <t>红塔红土盛世普益灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>99.38</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
+          <t>64.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -1434,25 +1774,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>515020</t>
+          <t>512730</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华夏中证银行ETF</t>
+          <t>鹏华中证银行ETF</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>98.52</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
+          <t>97.66</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>515280</t>
+          <t>510130</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>富国中证银行ETF</t>
+          <t>易方达上证中盘ETF</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>99.03</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>515290</t>
+          <t>515500</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>天弘中证银行ETF</t>
+          <t>海富通中证长三角领先ETF</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>99.61</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>10</v>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>515300</t>
+          <t>005325</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>嘉实沪深300红利低波动ETF</t>
+          <t>景顺长城泰恒回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>99.39</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>9</v>
+          <t>23.01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>515500</t>
+          <t>005576</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>海富通中证长三角领先ETF</t>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4.77</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>3</v>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>160418</t>
+          <t>005258</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>华安中证银行指数（LOF）A</t>
+          <t>景顺长城量化平衡灵活配置混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>94.06</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>10</v>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>160517</t>
+          <t>515300</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>博时中证银行指数（LOF）</t>
+          <t>嘉实沪深300红利低波动ETF</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>94.93</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>10</v>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -1630,25 +2040,35 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>160631</t>
+          <t>515280</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>鹏华中证银行指数（LOF）</t>
+          <t>富国中证银行ETF</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>94.63</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1658,25 +2078,35 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>161029</t>
+          <t>168205</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>富国中证银行指数</t>
+          <t>中融中证银行指数（LOF）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>92.88</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>161121</t>
+          <t>005326</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>易方达中证银行指数（LOF）A</t>
+          <t>景顺长城泰恒回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>94.64</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>10</v>
+          <t>23.01</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>009860</t>
+          <t>165531</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>易方达中证银行指数（LOF）C</t>
+          <t>信诚多策略灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>94.64</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>10</v>
+          <t>24.36</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="28">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>161723</t>
+          <t>006548</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>招商中证银行指数（LOF）</t>
+          <t>红塔红土盛弘灵活配置混合C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>10</v>
+          <t>63.66</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>168205</t>
+          <t>510220</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>中融中证银行指数（LOF）</t>
+          <t>华泰柏瑞上证中小盘ETF</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>92.53</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>10</v>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601229-上海银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601229-上海银行.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2265,4 +2266,664 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004836</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0994</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006547</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>红塔红土盛弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>65.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000743</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>红塔红土盛世普益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>63.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002833</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏新锦绣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>70.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002135</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发鑫源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>66.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0736</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>165310</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信沪深300指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002288</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004837</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515500</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>海富通中证长三角领先ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009208</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>建信沪深300指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>510220</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证中小盘ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006548</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>红塔红土盛弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>65.32</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002834</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏新锦绣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>70.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002136</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发鑫源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>66.46</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601229-上海银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601229-上海银行.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2926,4 +2927,1048 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512800</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8455</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515290</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7450</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512700</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7579</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161121</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5649</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161723</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5059</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161029</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证银行指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3900</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160631</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3815</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160517</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3016</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512820</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2381</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515020</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1622</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009860</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1423</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002670</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1269</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>512730</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0949</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160418</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159887</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证800银行交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006547</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>红塔红土盛弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>59.39</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>516310</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达中证银行交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001412</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>61.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>515500</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>海富通中证长三角领先ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011971</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>西藏东财中证银行指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002671</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>515280</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>168205</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中融中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011972</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>西藏东财中证银行指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002112</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>61.81</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006548</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>红塔红土盛弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>59.39</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601229-上海银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601229-上海银行.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3971,4 +3972,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.779999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601229-上海银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601229-上海银行.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3980,7 +3981,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3991,17 +3992,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4011,14 +4032,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.779999999999999</v>
+          <t>512800</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0637</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -4027,14 +4070,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.68</v>
+          <t>515290</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6018</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -4043,14 +4108,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>28</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.34</v>
+          <t>002585</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信兴利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>49.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>67.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4780</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -4059,13 +4146,1211 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>512700</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7696</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161121</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5941</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161723</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5283</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161029</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证银行指数</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4482</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160631</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3289</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160517</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2971</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002833</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏新锦绣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>67.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2544</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>512820</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2201</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515020</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2154</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009860</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1670</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159887</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国中证800银行交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1636</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001412</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>63.82</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1328</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003831</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>建信鑫瑞回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>75.19</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1154</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005486</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>平安量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>66.84</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160418</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>512730</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>97.71</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>516310</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达中证银行交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.04</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011971</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>西藏东财中证银行指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>515280</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>515500</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>海富通中证长三角领先ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>96.04</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011972</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>西藏东财中证银行指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>168205</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中融中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002112</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>63.82</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006547</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>红塔红土盛弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>62.94</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005487</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>平安量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>66.84</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006548</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>红塔红土盛弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>62.94</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002834</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏新锦绣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>67.33</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>32</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.779999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>28</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>17</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>6.42</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601229-上海银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601229-上海银行.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5249,7 +5250,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5260,17 +5261,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5280,14 +5301,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>32</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.85</v>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>73.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4486</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -5296,14 +5339,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>26</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.779999999999999</v>
+          <t>011834</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3383</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -5312,14 +5377,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.68</v>
+          <t>013463</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>60.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2121</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -5328,14 +5415,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>28</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10.34</v>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1769</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -5344,13 +5453,547 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001304</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信鑫安回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>66.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1197</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010908</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1065</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003831</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信鑫瑞回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>70.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1060</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002585</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信兴利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>61.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1049</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002849</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金信智能中国2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010909</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011835</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515500</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>海富通中证长三角领先ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>95.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012977</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013464</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>60.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012978</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.85</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.779999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>28</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.34</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>17</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>6.42</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601229-上海银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601229-上海银行.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5876,7 +5877,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5887,17 +5888,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5907,14 +5928,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.8</v>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>62.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9690</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -5923,14 +5966,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>32</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.85</v>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4806</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -5939,14 +6004,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>26</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.779999999999999</v>
+          <t>011834</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2670</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -5955,14 +6042,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>16</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.68</v>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>64.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2651</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -5971,14 +6080,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>28</v>
-      </c>
-      <c r="D6" t="n">
-        <v>10.34</v>
+          <t>013463</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>61.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2001</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -5987,13 +6118,525 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>62.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1676</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012708</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002849</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金信智能中国2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011835</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>76.43</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515500</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>海富通中证长三角领先ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012709</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013464</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>61.36</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004730</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信量化事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>32</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.779999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>28</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>17</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>6.42</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601229-上海银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601229-上海银行.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>2.6</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>12.85</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D5" t="n">
-        <v>9.779999999999999</v>
+        <v>12.85</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D6" t="n">
-        <v>0.68</v>
+        <v>9.779999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
-        <v>10.34</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>28</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10.34</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>17</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>6.42</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -666,26 +683,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>31.46</t>
+          <t>19.80</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>62.72</t>
+          <t>66.91</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9690</t>
+          <t>0.5762</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -704,26 +721,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.38</t>
+          <t>9.90</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>76.56</t>
+          <t>61.86</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4806</t>
+          <t>0.3792</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -732,36 +749,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011834</t>
+          <t>090013</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
+          <t>大成竞争优势混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>76.43</t>
+          <t>61.00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.65</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2670</t>
+          <t>0.2016</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -770,36 +787,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>090013</t>
+          <t>011834</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>大成竞争优势混合</t>
+          <t>大成投资严选六月持有混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.45</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>64.37</t>
+          <t>66.75</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>5.99</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2651</t>
+          <t>0.1857</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -818,26 +835,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>61.36</t>
+          <t>60.88</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.04</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2001</t>
+          <t>0.1493</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -856,26 +873,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.44</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>62.72</t>
+          <t>66.91</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1676</t>
+          <t>0.1170</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -884,36 +901,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>012708</t>
+          <t>165310</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>东方红中证东方红红利低波动指数A</t>
+          <t>建信沪深300指数增强（LOF）A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.63</t>
+          <t>93.07</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0681</t>
+          <t>0.0770</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -922,36 +939,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002849</t>
+          <t>005576</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>金信智能中国2025灵活配置混合</t>
+          <t>华泰柏瑞新金融地产灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>81.84</t>
+          <t>94.39</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>6.58</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0583</t>
+          <t>0.0553</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -960,36 +977,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>515300</t>
+          <t>002849</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>嘉实沪深300红利低波动ETF</t>
+          <t>金信智能中国2025灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>98.51</t>
+          <t>78.83</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0298</t>
+          <t>0.0519</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -998,36 +1015,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>510290</t>
+          <t>515300</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>南方上证380ETF</t>
+          <t>嘉实沪深300红利低波动ETF</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>98.99</t>
+          <t>99.19</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0287</t>
+          <t>0.0294</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1036,36 +1053,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>011835</t>
+          <t>510290</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>大成投资严选六个月持有期混合型证券投资基金C</t>
+          <t>南方上证380ETF</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>76.43</t>
+          <t>99.03</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>7.65</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0191</t>
+          <t>0.0253</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1084,26 +1101,26 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>97.08</t>
+          <t>97.12</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0178</t>
+          <t>0.0150</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1112,36 +1129,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>012709</t>
+          <t>011835</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>东方红中证东方红红利低波动指数C</t>
+          <t>大成投资严选六月持有混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>93.63</t>
+          <t>66.75</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>5.99</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0131</t>
+          <t>0.0132</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -1160,26 +1177,26 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>61.36</t>
+          <t>60.88</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>5.04</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0091</t>
+          <t>0.0070</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1188,36 +1205,74 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>004730</t>
+          <t>009208</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>建信量化事件驱动股票</t>
+          <t>建信沪深300指数增强（LOF）C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>89.61</t>
+          <t>93.07</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0089</t>
+          <t>0.0042</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>016374</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1282,36 +1337,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>090007</t>
+          <t>008269</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大成策略回报混合</t>
+          <t>大成睿享混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.30</t>
+          <t>31.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>73.51</t>
+          <t>62.72</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4486</t>
+          <t>0.9690</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1320,36 +1375,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011834</t>
+          <t>090007</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
+          <t>大成策略回报混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>10.38</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.63</t>
+          <t>76.56</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.72</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3383</t>
+          <t>0.4806</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1358,36 +1413,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>013463</t>
+          <t>011834</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大成致远优势一年持有期混合A</t>
+          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>60.15</t>
+          <t>76.43</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.29</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2121</t>
+          <t>0.2670</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1406,26 +1461,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>6.45</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>72.16</t>
+          <t>64.37</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1769</t>
+          <t>0.2651</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1434,32 +1489,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001304</t>
+          <t>013463</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>建信鑫安回报灵活配置混合</t>
+          <t>大成致远优势一年持有期混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>66.83</t>
+          <t>61.36</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.62</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1197</t>
+          <t>0.2001</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1472,36 +1527,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010908</t>
+          <t>008270</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>大成沪深300指数增强A</t>
+          <t>大成睿享混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>86.52</t>
+          <t>62.72</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1065</t>
+          <t>0.1676</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1510,36 +1565,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>003831</t>
+          <t>012708</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>建信鑫瑞回报灵活配置混合</t>
+          <t>东方红中证东方红红利低波动指数A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>70.33</t>
+          <t>93.63</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.89</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1060</t>
+          <t>0.0681</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1548,36 +1603,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002585</t>
+          <t>002849</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>建信兴利灵活配置混合</t>
+          <t>金信智能中国2025灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>61.22</t>
+          <t>81.84</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1049</t>
+          <t>0.0583</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1586,36 +1641,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002849</t>
+          <t>515300</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>金信智能中国2025灵活配置混合</t>
+          <t>嘉实沪深300红利低波动ETF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>82.44</t>
+          <t>98.51</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0750</t>
+          <t>0.0298</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1624,36 +1679,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010909</t>
+          <t>510290</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>大成沪深300指数增强C</t>
+          <t>南方上证380ETF</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>86.52</t>
+          <t>98.99</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0501</t>
+          <t>0.0287</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1672,22 +1727,22 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>84.63</t>
+          <t>76.43</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>8.72</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0262</t>
+          <t>0.0191</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1710,26 +1765,26 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>95.16</t>
+          <t>97.08</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0196</t>
+          <t>0.0178</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1738,36 +1793,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>012977</t>
+          <t>012709</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>瑞达鑫红量化6个月持有混合型证券投资基金A</t>
+          <t>东方红中证东方红红利低波动指数C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>93.63</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0100</t>
+          <t>0.0131</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1786,26 +1841,26 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>60.15</t>
+          <t>61.36</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>5.29</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0090</t>
+          <t>0.0091</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1814,32 +1869,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>012978</t>
+          <t>004730</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>瑞达鑫红量化6个月持有混合型证券投资基金C</t>
+          <t>建信量化事件驱动股票</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>89.61</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0016</t>
+          <t>0.0089</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1852,6 +1907,632 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>73.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4486</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011834</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3383</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013463</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>60.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2121</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1769</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001304</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信鑫安回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>66.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1197</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010908</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1065</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003831</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信鑫瑞回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>70.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1060</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002585</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信兴利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>61.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1049</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002849</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金信智能中国2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010909</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011835</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515500</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>海富通中证长三角领先ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>95.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012977</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013464</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>60.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012978</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3119,7 +3800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4163,7 +4844,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4823,7 +5504,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5943,7 +6624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601229-上海银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601229-上海银行.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>1.89</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="n">
-        <v>2.6</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>12.85</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D6" t="n">
-        <v>9.779999999999999</v>
+        <v>12.85</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D7" t="n">
-        <v>0.68</v>
+        <v>9.779999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D8" t="n">
-        <v>10.34</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,732 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>28</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10.34</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>17</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>6.42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512800</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1201</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160631</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9648</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512700</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5950</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161723</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4019</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161121</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2578</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161029</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证银行指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2000</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160418</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1687</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512820</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1533</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160517</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1209</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009860</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1184</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>515020</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515500</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>海富通中证长三角领先ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0932</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>512730</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.02</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>515280</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>96.57</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>168205</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中融中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>510220</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证中小盘ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>97.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1336,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002849</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金信智能中国2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1273,632 +2162,6 @@
       </c>
       <c r="H17" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>008269</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大成睿享混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>31.46</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>62.72</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.9690</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>090007</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大成策略回报混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>10.38</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>76.56</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4806</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>011834</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>76.43</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.65</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2670</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>090013</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>大成竞争优势混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6.45</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>64.37</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2651</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>013463</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>大成致远优势一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>61.36</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2001</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008270</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>大成睿享混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>62.72</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1676</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>012708</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>东方红中证东方红红利低波动指数A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.63</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0681</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002849</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>金信智能中国2025灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>81.84</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.35</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0583</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>515300</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>嘉实沪深300红利低波动ETF</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>98.51</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0298</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>510290</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>南方上证380ETF</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>98.99</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0287</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>011835</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>大成投资严选六个月持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>76.43</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>7.65</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0191</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>515500</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>海富通中证长三角领先ETF</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>97.08</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0178</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>012709</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>东方红中证东方红红利低波动指数C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.63</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0131</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>013464</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>大成致远优势一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>61.36</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0091</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>004730</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>建信量化事件驱动股票</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>89.61</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0089</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1963,36 +2226,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>090007</t>
+          <t>008269</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大成策略回报混合</t>
+          <t>大成睿享混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.30</t>
+          <t>31.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>73.51</t>
+          <t>62.72</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4486</t>
+          <t>0.9690</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2001,36 +2264,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011834</t>
+          <t>090007</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
+          <t>大成策略回报混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>10.38</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.63</t>
+          <t>76.56</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.72</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3383</t>
+          <t>0.4806</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2039,36 +2302,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>013463</t>
+          <t>011834</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大成致远优势一年持有期混合A</t>
+          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>60.15</t>
+          <t>76.43</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.29</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2121</t>
+          <t>0.2670</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2087,26 +2350,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>6.45</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>72.16</t>
+          <t>64.37</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1769</t>
+          <t>0.2651</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -2115,32 +2378,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001304</t>
+          <t>013463</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>建信鑫安回报灵活配置混合</t>
+          <t>大成致远优势一年持有期混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>66.83</t>
+          <t>61.36</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.62</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1197</t>
+          <t>0.2001</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -2153,36 +2416,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010908</t>
+          <t>008270</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>大成沪深300指数增强A</t>
+          <t>大成睿享混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>86.52</t>
+          <t>62.72</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1065</t>
+          <t>0.1676</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -2191,36 +2454,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>003831</t>
+          <t>012708</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>建信鑫瑞回报灵活配置混合</t>
+          <t>东方红中证东方红红利低波动指数A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>70.33</t>
+          <t>93.63</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.89</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1060</t>
+          <t>0.0681</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -2229,36 +2492,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002585</t>
+          <t>002849</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>建信兴利灵活配置混合</t>
+          <t>金信智能中国2025灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>61.22</t>
+          <t>81.84</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1049</t>
+          <t>0.0583</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -2267,36 +2530,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002849</t>
+          <t>515300</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>金信智能中国2025灵活配置混合</t>
+          <t>嘉实沪深300红利低波动ETF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>82.44</t>
+          <t>98.51</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0750</t>
+          <t>0.0298</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -2305,36 +2568,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010909</t>
+          <t>510290</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>大成沪深300指数增强C</t>
+          <t>南方上证380ETF</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>86.52</t>
+          <t>98.99</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0501</t>
+          <t>0.0287</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -2353,22 +2616,22 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>84.63</t>
+          <t>76.43</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>8.72</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0262</t>
+          <t>0.0191</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -2391,26 +2654,26 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>95.16</t>
+          <t>97.08</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0196</t>
+          <t>0.0178</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -2419,36 +2682,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>012977</t>
+          <t>012709</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>瑞达鑫红量化6个月持有混合型证券投资基金A</t>
+          <t>东方红中证东方红红利低波动指数C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>93.63</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0100</t>
+          <t>0.0131</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -2467,26 +2730,26 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>60.15</t>
+          <t>61.36</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>5.29</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0090</t>
+          <t>0.0091</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -2495,32 +2758,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>012978</t>
+          <t>004730</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>瑞达鑫红量化6个月持有混合型证券投资基金C</t>
+          <t>建信量化事件驱动股票</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>89.61</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0016</t>
+          <t>0.0089</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -2533,6 +2796,632 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>73.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4486</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011834</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3383</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013463</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>60.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2121</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1769</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001304</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信鑫安回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>66.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1197</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010908</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1065</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003831</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信鑫瑞回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>70.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1060</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002585</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信兴利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>61.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1049</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002849</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金信智能中国2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010909</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011835</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515500</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>海富通中证长三角领先ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>95.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012977</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013464</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>60.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012978</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3800,7 +4689,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4844,7 +5733,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5504,7 +6393,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6622,706 +7511,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>512800</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华宝中证银行ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>92.31</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.05</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.1201</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>160631</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华中证银行指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>30.15</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.12</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.9648</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>512700</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方中证银行ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>17.50</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>99.75</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.5950</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>161723</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>招商中证银行指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>12.60</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.21</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4019</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>161121</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>易方达中证银行指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>8.03</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2578</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>161029</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富国中证银行指数</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>6.33</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.68</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2000</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>160418</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华安中证银行指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.81</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1687</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>512820</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>汇添富中证银行ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>99.55</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1533</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>160517</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>博时中证银行指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.06</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1209</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009860</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>易方达中证银行指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1184</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>515020</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华夏中证银行ETF</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>98.14</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1021</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>515500</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>海富通中证长三角领先ETF</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0932</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>512730</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>鹏华中证银行ETF</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>97.02</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0512</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>510130</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>易方达上证中盘ETF</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>98.64</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0425</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>515280</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>富国中证银行ETF</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>96.57</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0150</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>168205</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>中融中证银行指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>92.77</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0141</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>510220</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>华泰柏瑞上证中小盘ETF</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>97.83</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0023</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>